--- a/biology/Botanique/Lola_(algue)/Lola_(algue).xlsx
+++ b/biology/Botanique/Lola_(algue)/Lola_(algue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lola est un genre d'algues vertes de la famille des Cladophoraceae, dont la distribution géographique est mal connue en raison des confusions possibles avec d'autres algues[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lola est un genre d'algues vertes de la famille des Cladophoraceae, dont la distribution géographique est mal connue en raison des confusions possibles avec d'autres algues.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Lola fut donné en mémoire d'une artiste en vogue vers 1930[1]. Il s'agit plus exactement de « Lola-Lola » personnage joué par Marlène Dietrich dans le film L'Ange bleu, sorti en 1930, le personnage désignant l'artiste par métonymie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Lola fut donné en mémoire d'une artiste en vogue vers 1930. Il s'agit plus exactement de « Lola-Lola » personnage joué par Marlène Dietrich dans le film L'Ange bleu, sorti en 1930, le personnage désignant l'artiste par métonymie.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Détermination, systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Lola implexa (Harvey) se présente macroscopiquement sous la forme de « filament entremêlés non ramifiés, formant des mèches frisées et enchevêtrées »[1].
-Le genre Lola a été séparé du genre Chaetomorpha sur la base de critères reproducteurs (cycle monogénétique) et cytologiques[1]. Il a été créé en 1929 par les époux A. Hamel (d) et Gontran Hamel (1883-1944)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Lola implexa (Harvey) se présente macroscopiquement sous la forme de « filament entremêlés non ramifiés, formant des mèches frisées et enchevêtrées ».
+Le genre Lola a été séparé du genre Chaetomorpha sur la base de critères reproducteurs (cycle monogénétique) et cytologiques. Il a été créé en 1929 par les époux A. Hamel (d) et Gontran Hamel (1883-1944).
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (7 août avril 2021)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (7 août avril 2021) :
 Lola californica (Collins) V.J.Chapman
 Lola capillaris (Kützing) Hamel
 Lola gracilis (Kützing) V.J.Chapman
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>A. Hamel et G. Hamel, « Sur l'hétérogamie d'une Cladophoracée Lola (nov. gen.) lubrica (Setch. et Gardn.) », Compte Rendu Hebdomadaire des Séances de l'Académie des Sciences, Paris, vol. 189,‎ 1er juillet 1929, p. 1094-1096 (ISSN 0001-4036, lire en ligne, consulté le 28 décembre 2022).</t>
         </is>
